--- a/Excel Cooordinates Control/coordinates_py.xlsx
+++ b/Excel Cooordinates Control/coordinates_py.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Excel Cooordinates Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Gonzales\Documents\THESIS\Excel Cooordinates Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ADAE73-E35F-4236-92DE-F4445555F5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E824DC7-ED37-44BE-A093-3EC567C1C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="7095" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -189,20 +189,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,102 +538,110 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="1">
         <v>62</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="F1" s="5">
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5">
+      <c r="B5">
         <v>-62</v>
       </c>
-      <c r="I1" s="5">
+      <c r="C5">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>62</v>
-      </c>
-      <c r="C2" s="5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-62</v>
+      </c>
+      <c r="C6">
         <v>-60</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-60</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-62</v>
-      </c>
-      <c r="I2" s="5">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="20" spans="14:14" x14ac:dyDescent="0.25">
@@ -663,104 +659,104 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="1">
         <v>62</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="1">
         <v>159</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="1">
         <v>0</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="1">
         <v>159</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="1">
         <v>-62</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="1">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>62</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>87</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>87</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>-62</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="5"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I4" s="5"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,34 +774,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="3">
         <v>-144</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="3">
         <v>160</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>-163</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>87</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,144 +819,144 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="1">
         <v>-145</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="1">
         <v>-163</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="1">
         <v>-181</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="1">
         <v>-203</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>-145</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>-16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>-163</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>-16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>-181</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>-16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="1">
         <v>-203</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="1">
         <v>-16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>-145</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>-38</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>-163</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>-38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>-145</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>-60</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>-163</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>-60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,202 +979,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A646329-D59B-450F-891E-5E267196DCF7}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="1">
         <v>80</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="1">
         <v>127</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="1">
         <v>62</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="1">
         <v>127</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="1">
         <v>44</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="1">
         <v>127</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="1">
         <v>18</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="1">
         <v>127</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="1">
         <v>0</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="1">
         <v>127</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="1">
         <v>-18</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="1">
         <v>127</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="1">
         <v>-44</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="1">
         <v>127</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="1">
         <v>-62</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="1">
         <v>127</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="1">
         <v>-80</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="1">
         <v>127</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AC1" s="1">
         <v>-145</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="1">
         <v>127</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AF1" s="1">
         <v>-163</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AG1" s="1">
         <v>127</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AI1" s="1">
         <v>-181</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AJ1" s="1">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>80</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>-20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>62</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>-20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>44</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>-20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="1">
         <v>18</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="1">
         <v>-20</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="1">
         <v>-20</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="1">
         <v>-18</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="1">
         <v>-20</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="1">
         <v>-44</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="1">
         <v>-20</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="1">
         <v>-62</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="1">
         <v>-20</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="1">
         <v>-80</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="1">
         <v>-20</v>
       </c>
     </row>

--- a/Excel Cooordinates Control/coordinates_py.xlsx
+++ b/Excel Cooordinates Control/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Gonzales\Documents\THESIS\Excel Cooordinates Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E824DC7-ED37-44BE-A093-3EC567C1C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC9CE1-C232-48AC-B80F-EC99CECBF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="2010" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I9"/>
+      <selection activeCell="C7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -659,7 +660,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Cooordinates Control/coordinates_py.xlsx
+++ b/Excel Cooordinates Control/coordinates_py.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Gonzales\Documents\THESIS\Excel Cooordinates Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Excel Cooordinates Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC9CE1-C232-48AC-B80F-EC99CECBF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B4307-5023-43EC-A38E-F5EEEC8C04E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="3270" yWindow="1920" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="B7:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,8 +605,6 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +658,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,24 +673,6 @@
       <c r="C1" s="1">
         <v>159</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>159</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1">
-        <v>-62</v>
-      </c>
-      <c r="I1" s="1">
-        <v>159</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -704,35 +684,53 @@
       <c r="C2" s="1">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>159</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="C4" s="1">
         <v>87</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>159</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
+      <c r="B6" s="1">
         <v>-62</v>
       </c>
-      <c r="I2" s="1">
+      <c r="C6" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,7 +767,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,15 +809,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -829,35 +827,8 @@
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1">
-        <v>-163</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1">
-        <v>-181</v>
-      </c>
-      <c r="I1" s="1">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1">
-        <v>-203</v>
-      </c>
-      <c r="L1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -867,35 +838,8 @@
       <c r="C2" s="1">
         <v>-16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-163</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-181</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-203</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -905,17 +849,8 @@
       <c r="C3" s="1">
         <v>-38</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-163</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -925,38 +860,105 @@
       <c r="C4" s="1">
         <v>-60</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-163</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-163</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-163</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-38</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1">
+      <c r="B8" s="1">
         <v>-163</v>
       </c>
-      <c r="F4" s="1">
+      <c r="C8" s="1">
         <v>-60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-181</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-181</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-16</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-203</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-203</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-16</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
   </sheetData>

--- a/Excel Cooordinates Control/coordinates_py.xlsx
+++ b/Excel Cooordinates Control/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Excel Cooordinates Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B4307-5023-43EC-A38E-F5EEEC8C04E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B54550-3B3F-4D0C-87E1-BF0F4600B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1920" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="3270" yWindow="1920" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAB8C30-BE15-4D5C-9873-454205F1F327}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>

--- a/Excel Cooordinates Control/coordinates_py.xlsx
+++ b/Excel Cooordinates Control/coordinates_py.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Excel Cooordinates Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B54550-3B3F-4D0C-87E1-BF0F4600B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3A3E8-B8C0-41AC-8B4A-896F07721DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1920" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="4890" yWindow="2940" windowWidth="21600" windowHeight="11325" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -176,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,12 +190,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -516,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +562,7 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,8 +572,26 @@
       <c r="C1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>-62</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,85 +601,59 @@
       <c r="C2" s="1">
         <v>-60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="F2">
         <v>-60</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>-62</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-62</v>
-      </c>
-      <c r="C6">
+      <c r="I2">
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -658,7 +674,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +689,24 @@
       <c r="C1" s="1">
         <v>159</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>159</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-62</v>
+      </c>
+      <c r="I1" s="1">
+        <v>159</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -684,53 +718,35 @@
       <c r="C2" s="1">
         <v>87</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>87</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-62</v>
+      </c>
+      <c r="I2" s="1">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>159</v>
-      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>87</v>
-      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>159</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C6" s="1">
-        <v>87</v>
-      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAB8C30-BE15-4D5C-9873-454205F1F327}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +825,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
@@ -817,7 +833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -827,8 +843,35 @@
       <c r="C1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-163</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-181</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-203</v>
+      </c>
+      <c r="L1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -838,8 +881,35 @@
       <c r="C2" s="1">
         <v>-16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-163</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-181</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-203</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -849,8 +919,17 @@
       <c r="C3" s="1">
         <v>-38</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-163</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -860,105 +939,38 @@
       <c r="C4" s="1">
         <v>-60</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
         <v>-163</v>
       </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-163</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-163</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-38</v>
-      </c>
+      <c r="F4" s="1">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-163</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-60</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-181</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-181</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-16</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-203</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-203</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-16</v>
-      </c>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
   </sheetData>
@@ -968,13 +980,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA27D23-19E6-4EDD-8799-ABB2D17C0FE4}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7">
+        <v>195</v>
+      </c>
+      <c r="C1" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>195</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>195</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>195</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
